--- a/google_language_family.xlsx
+++ b/google_language_family.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C103"/>
+  <dimension ref="A1:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -374,6 +374,11 @@
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
+          <t>Native speakers</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
           <t>Family</t>
         </is>
       </c>
@@ -389,6 +394,11 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
+          <t>7.2 million (2016)[1]10.3 million L2 speakers in South Africa (2002)[2]</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,West Germanic,Low Franconian,Dutch</t>
         </is>
       </c>
@@ -404,6 +414,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
+          <t xml:space="preserve">
+6 million (2018) in the Balkans[1]
+7.5 million globally (2017/2018)[2][1]
+</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
           <t>Indo-European</t>
         </is>
       </c>
@@ -419,6 +437,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>22,000,000[1][2] (2007 Population and Housing Census)</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Afro-Asiatic,Semitic,South Semitic,Ethiopian,South,Transversal,Amharic–Argobba</t>
         </is>
       </c>
@@ -434,6 +457,11 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>310 million, all varieties (2011–2016)[1]270 million L2 speakers of Standard (Modern) Arabic[1]</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Afro-Asiatic,Semitic,Central Semitic,West Semitic,Arabic</t>
         </is>
       </c>
@@ -449,6 +477,11 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>6.7 million[1]</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Indo-European</t>
         </is>
       </c>
@@ -464,6 +497,11 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>23 million (2018)[1]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Turkic,Common Turkic,Oghuz</t>
         </is>
       </c>
@@ -479,6 +517,11 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
+          <t>750,000 [1] (2016)1,185,500 passive speakers</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
           <t>Language isolate,Vasconic</t>
         </is>
       </c>
@@ -494,6 +537,11 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
+          <t>5.1 million[1] (2009 census)6.3 million L2 speakers (2009 census)[1]</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,East Slavic</t>
         </is>
       </c>
@@ -509,6 +557,11 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
+          <t>230 million (2011–2017)[1][2]L2 speakers: 37 million[1]</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Indo-Aryan,Magadhi Prakrit,Eastern Zone,Bengali-Assamese</t>
         </is>
       </c>
@@ -524,6 +577,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
+          <t>2.5–3 million (2008)[1]</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,South Slavic,Western,Serbo-Croatian</t>
         </is>
       </c>
@@ -539,6 +597,11 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>8[1]–9[2][3][4][5] million (2011)</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,South Slavic,Eastern South Slavic</t>
         </is>
       </c>
@@ -554,6 +617,11 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>33 million (2007)[1]Second language: 10 million (no date)[2]</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Sino-Tibetan,Lolo-Burmese,Burmish</t>
         </is>
       </c>
@@ -569,6 +637,11 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>4.1 million[1] (2012)Total number of speakers: More than 10 million (L1 plus L2; 2018)[2]</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Indo-European,Italic,Romance,Western Romance,Gallo-Romance,Occitano-Romance</t>
         </is>
       </c>
@@ -584,6 +657,11 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>16 million (2005)[6]</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian,Philippine,Greater Central Philippine,Central Philippine,Visayan</t>
         </is>
       </c>
@@ -599,6 +677,11 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>12 million (2007)[1]</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Niger–Congo,Atlantic–Congo,Bennue–Congo,Southern Bantoid,Bantu,Nyasa</t>
         </is>
       </c>
@@ -614,6 +697,11 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
+          <t>1.2 billion (2004)[1]</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
           <t>Sino-Tibetan</t>
         </is>
       </c>
@@ -629,6 +717,11 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
+          <t>1.2 billion (2004)[1]</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
           <t>Sino-Tibetan</t>
         </is>
       </c>
@@ -644,6 +737,11 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
+          <t>125,000 in Corsica (2009)[1]</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
           <t>Indo-European,Italic,Romance,Italo-Dalmatian,Tuscan</t>
         </is>
       </c>
@@ -659,6 +757,11 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
+          <t>(5.6 million, including other dialects spoken by Croats cited 1991–2006)[1]</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,South Slavic,Serbo-Croatian</t>
         </is>
       </c>
@@ -674,6 +777,11 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
+          <t>10.7 million (2015)[1]</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,West Slavic,Czech–Slovak</t>
         </is>
       </c>
@@ -689,6 +797,11 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
+          <t>6.0 million (2019)[2]</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,North Germanic,South Scandinavian</t>
         </is>
       </c>
@@ -704,6 +817,11 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
+          <t>24 million (2016)[1]Total (L1 plus L2 speakers): 29 million (2018)[2][3]</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,West Germanic,Low Franconian,Frankish</t>
         </is>
       </c>
@@ -719,6 +837,11 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
+          <t>360–400 million (2006)[2]L2 speakers: 750 million;as a foreign language: 600–700 million[2]</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,West Germanic,Anglo-Frisian,Anglic</t>
         </is>
       </c>
@@ -734,6 +857,11 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
+          <t>1.1 million (2012)[1]</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
           <t>Uralic,Finnic</t>
         </is>
       </c>
@@ -749,6 +877,11 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
+          <t>45 million L2 users (2013)[1]</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian,Philippine,Central Philippine,Tagalog</t>
         </is>
       </c>
@@ -764,6 +897,11 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
+          <t>5.4 million (2009–2012)[1]</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
           <t>Uralic,Finnic</t>
         </is>
       </c>
@@ -779,6 +917,11 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
+          <t>76.8 million worldwideAn estimated 274 million French speakers (L1 plus L2; 2014)[1][2]</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
           <t>Indo-European,Italic,Romance,Western Romance,Gallo-Romance,Oïl</t>
         </is>
       </c>
@@ -794,6 +937,11 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
+          <t>2.4 million (2012)[1]58% of the population of Galicia (c. 1.56 million) are L1 speakers (2007)[2]</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
           <t>Indo-European,Italic,Romance,Western Romance,Ibero-Romance,West-Iberian,Galician-Portuguese</t>
         </is>
       </c>
@@ -809,6 +957,11 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
+          <t>3.7 million (2014)[1]</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
           <t>Kartvelian,Karto-Zan</t>
         </is>
       </c>
@@ -824,6 +977,11 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
+          <t>90 million (2010) to 95 million (2014)L2 speakers: 10–15 million (2014)[1]</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,West Germanic,High German</t>
         </is>
       </c>
@@ -839,6 +997,11 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
+          <t>13.4 million (2012)[1]</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
           <t>Indo-European,Hellenic</t>
         </is>
       </c>
@@ -854,6 +1017,11 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
+          <t>56 million (2011)[1][2]L2 speakers: 4 million[1]</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Indo-Aryan,Western,Gujarati languages</t>
         </is>
       </c>
@@ -869,6 +1037,11 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
+          <t>9.6 million (2007)[1]</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
           <t>French Creole</t>
         </is>
       </c>
@@ -884,6 +1057,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
+          <t>40 million (2015–2016)[1]20 million as a second language (no date);[2][3]</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
           <t>Afro-Asiatic,Chadic,West Chadic,Hausa–Gwandara (A.1)</t>
         </is>
       </c>
@@ -899,6 +1077,11 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
+          <t>~24,000 (2008)</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian,Oceanic,Polynesian,Eastern Polynesian,Marquesic</t>
         </is>
       </c>
@@ -912,7 +1095,8 @@
           <t>Hebrew</t>
         </is>
       </c>
-      <c r="C37" t="inlineStr">
+      <c r="C37" t="inlineStr"/>
+      <c r="D37" t="inlineStr">
         <is>
           <t>Afro-Asiatic,Semitic,Central Semitic,Northwest Semitic,Canaanite</t>
         </is>
@@ -929,6 +1113,11 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
+          <t>L1 speakers: 322 million speakers of Hindi and various related languages reported their language as 'Hindi' (2011 census)[1]L2 speakers: 270 million (2016)[2]</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Indo-Aryan,Central Zone,Western Hindi,Hindustani</t>
         </is>
       </c>
@@ -944,6 +1133,11 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
+          <t>(3.7 million cited 1995–2009)[1]not counting Vietnam</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
           <t>Hmong–Mien,Hmongic,West Hmongic</t>
         </is>
       </c>
@@ -959,6 +1153,11 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
+          <t>13 million (2003–2014)[1]</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
           <t>Uralic,Ugric</t>
         </is>
       </c>
@@ -974,6 +1173,11 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
+          <t>314,000 (2015)[1]</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,North Germanic,West Scandinavian</t>
         </is>
       </c>
@@ -989,6 +1193,11 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
+          <t>27 million (2015)[1]</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
           <t>Niger–Congo,Atlantic–Congo,Volta–Congo,Volta–Niger,Igboid</t>
         </is>
       </c>
@@ -1004,6 +1213,11 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
+          <t>43 million (2010 census)[1]L2 speakers: 156 million (2010 census)[1]</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian,Malayo-Sumbawan,Malayic,Malayan,Malay</t>
         </is>
       </c>
@@ -1019,6 +1233,11 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
+          <t>73,803 daily speakers in Ireland (2016)[1]4,166 in Northern Ireland[2]L1 speakers: 141,000 in the EU (2012).[3]L2 speakers: 1,761,420 in the Republic of Ireland (2016),[1] 104,943 in Northern Ireland (2011)[2]</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
           <t>Indo-European,Celtic,Insular Celtic,Goidelic</t>
         </is>
       </c>
@@ -1034,6 +1253,11 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
+          <t>69 million native speakers in the EU[1] (c.2012)[2]90 million total speakersL2 speakers: 24 million</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
           <t>Indo-European,Italic,Romance,Italo-Western,Italo-Dalmatian</t>
         </is>
       </c>
@@ -1049,6 +1273,11 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
+          <t>~125 million (2010)[1]</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
           <t>Japonic</t>
         </is>
       </c>
@@ -1064,6 +1293,11 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
+          <t>82 million (2007)[1]</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian</t>
         </is>
       </c>
@@ -1079,6 +1313,11 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
+          <t>44 million (2011)[1][2]L2 speakers: 13 million[1]</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
           <t>Dravidian,Southern,Tamil–Kannada,Kannada–Badaga</t>
         </is>
       </c>
@@ -1094,6 +1333,11 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
+          <t>11.7 million[1] (2009)</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
           <t>Turkic,Common Turkic,Kipchak</t>
         </is>
       </c>
@@ -1109,6 +1353,11 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
+          <t>16 million (2007)[1]</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
           <t>Austroasiatic</t>
         </is>
       </c>
@@ -1124,6 +1373,11 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
+          <t>77.2 million (2010)[1]</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
           <t>Koreanic,Han,Sillan</t>
         </is>
       </c>
@@ -1139,6 +1393,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
+          <t>c. 20–30 million (2000–2010 est.)[1]</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Iranian,Western,Northwestern</t>
         </is>
       </c>
@@ -1154,6 +1413,11 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
+          <t>4.3 million (2009 census)[1]</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
           <t>Turkic,Common Turkic,Kipchak</t>
         </is>
       </c>
@@ -1167,7 +1431,8 @@
           <t>Latin</t>
         </is>
       </c>
-      <c r="C54" t="inlineStr">
+      <c r="C54" t="inlineStr"/>
+      <c r="D54" t="inlineStr">
         <is>
           <t>Indo-European,Italic,Latino-Faliscan</t>
         </is>
@@ -1184,6 +1449,11 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
+          <t>1.75 million (2015)[2]</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Baltic,Eastern Baltic</t>
         </is>
       </c>
@@ -1199,6 +1469,11 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
+          <t>3.0 million (2012)[1]</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Baltic,Eastern Baltic</t>
         </is>
       </c>
@@ -1214,6 +1489,11 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
+          <t>c. 390,000 (2010)[1]</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,West Germanic,High German,West Central German,Central Franconian,Moselle Franconian</t>
         </is>
       </c>
@@ -1229,6 +1509,11 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
+          <t>(1.4–2.5 million cited 1986–2011)[3]</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,South Slavic,Eastern South Slavic</t>
         </is>
       </c>
@@ -1244,6 +1529,11 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
+          <t>25 million (2015)[1]</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian,East Barito</t>
         </is>
       </c>
@@ -1259,6 +1549,11 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
+          <t>77 million (2007)[1]Total: 200–250 million (2009)[2]</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian,Malayo-Sumbawan,Malayic,Malayan</t>
         </is>
       </c>
@@ -1274,6 +1569,11 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
+          <t>37 million (2011–2019)[1][2]L2 speakers: 700,000[1]</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
           <t>Dravidian,Southern Dravidian,Tamil–Kannada,Tamil–Kodagu,Tamil-Malayalam</t>
         </is>
       </c>
@@ -1289,6 +1589,11 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
+          <t>520,000 (2012)[1]</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
           <t>Afro-Asiatic,Semitic,West Semitic,Central Semitic,Arabic,Old Arabic,Classical Arabic,Maghrebi Arabic,Siculo-Arabic</t>
         </is>
       </c>
@@ -1304,6 +1609,11 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
+          <t>Number of native proficient speakers is unknown.149,000 self-report some knowledge of the language[1]</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian,Oceanic,Polynesian,Eastern Polynesian,Tahitic,Moriori</t>
         </is>
       </c>
@@ -1319,6 +1629,11 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
+          <t>83 million (2011)[1]L2 speakers: 12 million[1]</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Indo-Aryan,Southern Indo-Aryan,Maharashtri,Marathi–Konkani</t>
         </is>
       </c>
@@ -1334,6 +1649,11 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
+          <t>3.6 Million (2014)[1]</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
           <t>Mongolic</t>
         </is>
       </c>
@@ -1349,6 +1669,11 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
+          <t>16 million (2011 census)[2]9 million L2 speakers (2011 census)[2]</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Indo-Aryan,Northern Zone,Eastern Pahari</t>
         </is>
       </c>
@@ -1364,6 +1689,11 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
+          <t>5.32 million (2020)[1]</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,North Germanic,West Scandinavian,disputed</t>
         </is>
       </c>
@@ -1379,6 +1709,11 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
+          <t>40 million (2000s)[1][2][3][4]</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Iranian,Eastern Iranian</t>
         </is>
       </c>
@@ -1394,6 +1729,11 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
+          <t>70 million[6](110 million total speakers)[5]</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Iranian,Western Iranian,Southwestern Iranian</t>
         </is>
       </c>
@@ -1409,6 +1749,11 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
+          <t>45 million[1]L2 speakers: 5 million+[2]</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,West Slavic,Lechitic</t>
         </is>
       </c>
@@ -1424,6 +1769,11 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
+          <t>223 million (2012–2016)[1]20 million L2 speakers[1]</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
           <t>Indo-European,Italic,Romance,Western Romance,Ibero-Romance,West Iberian,Galician-Portuguese</t>
         </is>
       </c>
@@ -1439,6 +1789,11 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
+          <t>125 million (2011–2015)[1]</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Indo-Aryan,Northwestern Indo-Aryan</t>
         </is>
       </c>
@@ -1454,6 +1809,11 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
+          <t>24–26 million (2016)[1]Second language: 4 million[2]L1+L2 speakers: 28–30 million</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
           <t>Indo-European,Italic,Romance,Eastern Romance,Balkan Romance</t>
         </is>
       </c>
@@ -1469,6 +1829,11 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
+          <t>150 million (2012)[1]L2: 110 million (2012)[1]</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,East Slavic</t>
         </is>
       </c>
@@ -1484,6 +1849,11 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
+          <t>510,000 (2015)[1]</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian,Oceanic,Polynesian</t>
         </is>
       </c>
@@ -1499,6 +1869,11 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
+          <t>57,000 fluent L1 and L2 speakers in Scotland (2011)[1]87,000 people in Scotland reported having some Gaelic language ability in 2011.[1]</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
           <t>Indo-European,Celtic,Insular Celtic,Goidelic</t>
         </is>
       </c>
@@ -1514,6 +1889,11 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
+          <t>c. 8 million in the Balkans (2016)[1]0.5–1.5 million abroad[2]</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,South Slavic,Western,Serbo-Croatian</t>
         </is>
       </c>
@@ -1529,6 +1909,11 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
+          <t>5.6 million (2001–2011)[1]7.9 million L2 speakers in South Africa (2002)[2]</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
           <t>Niger–Congo,Atlantic–Congo,Benue–Congo,Southern Bantoid,Bantu,Southern Bantu,Sotho–Tswana</t>
         </is>
       </c>
@@ -1544,6 +1929,11 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
+          <t>8.3 million, Shona proper (2007)[1]10.8 million Zezuru, Karanga, Korekore (2000) 15 million incl. Manyika, Ndau (2000–2006)[2]</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
           <t>Niger–Congo,Atlantic–Congo,Benue–Congo,Bantoid,Southern Bantoid,Bantu,Shona</t>
         </is>
       </c>
@@ -1559,6 +1949,11 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
+          <t>25 million (2007)[1]</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Indo-Aryan,Sindhi languages</t>
         </is>
       </c>
@@ -1574,6 +1969,11 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
+          <t>17.00 million (2012)[1]3 million L2 speakers (2012)[1]</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Indo-Aryan,Southern Zone,Insular Indic</t>
         </is>
       </c>
@@ -1589,6 +1989,11 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
+          <t>5.2 million (2011–2012)[1]</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,West Slavic,Czech–Slovak</t>
         </is>
       </c>
@@ -1604,6 +2009,11 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
+          <t>2.5 million (2010)[4]</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,South Slavic,Western</t>
         </is>
       </c>
@@ -1619,6 +2029,11 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
+          <t>16 million (2015)[2]</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
           <t>Afro-Asiatic,Cushitic,Lowland East Cushitic,Somali languages</t>
         </is>
       </c>
@@ -1634,6 +2049,11 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
+          <t>483 million native speakers (2019)[1]75 million L2 speakers and speakers with limited capacity + 22 million students[1]</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
           <t>Indo-European,Italic,Romance,Western Romance,Ibero-Romance,West-Iberian,Castilian languages</t>
         </is>
       </c>
@@ -1649,6 +2069,11 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
+          <t>40 million (2016)[1]</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
           <t>Austronesian,Malayo-Polynesian,Malayo-Sumbawan,Greater North Borneo</t>
         </is>
       </c>
@@ -1664,6 +2089,11 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
+          <t>Estimates range from 2 million (2003)[2] to 150 million (2012)[3]L2 speakers: 90 million (1991–2015)[3]</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
           <t>Niger–Congo,Atlantic–Congo,Benue–Congo,Bantoid,Southern Bantoid,Bantu,Northeast Bantu,Northeast Coast Bantu,Sabaki</t>
         </is>
       </c>
@@ -1679,6 +2109,11 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
+          <t>10 millionL2 speakers: 3.2 million (2018)[1]</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,North Germanic</t>
         </is>
       </c>
@@ -1694,6 +2129,11 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
+          <t>8.4 million (2015 census – 2015)[1]</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Iranian,Western Iranian,Southwestern Iranian,Persian</t>
         </is>
       </c>
@@ -1709,6 +2149,11 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
+          <t>75 million (2011–2015)[1][2]L2 speakers: 6 million[1]</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
           <t>Dravidian,Southern,Tamil–Kannada,Tamil–Kodagu,Tamil–Malayalam,Tamil languages</t>
         </is>
       </c>
@@ -1724,6 +2169,11 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
+          <t>82 million (2011)[1][2]L2 speakers: 11 million[1]</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
           <t>Dravidian</t>
         </is>
       </c>
@@ -1739,6 +2189,11 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
+          <t>20 to 36 million (2000)[1]44 million L2 speakers with Lanna, Isan, Southern Thai, Northern Khmer and Lao (2001)[1]</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
           <t>Kra–Dai,Tai,Southwestern Tai</t>
         </is>
       </c>
@@ -1754,6 +2209,11 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
+          <t>75.7 million[1] (2002–2018)88 million (L1 + L2)[2]</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
           <t>Turkic,Common Turkic,Oghuz</t>
         </is>
       </c>
@@ -1769,6 +2229,11 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
+          <t>35 million (2000)[1]Speakers: around 40 million (estimated)[2]</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
           <t>Indo-European,Balto-Slavic,Slavic,East Slavic,Ruthenian</t>
         </is>
       </c>
@@ -1784,6 +2249,11 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
+          <t>Native speakers: 68.62 million (2019)L2 speakers: 101.58 million (2019)[3]</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
           <t>Indo-European,Indo-Iranian,Indo-Aryan,Central Zone,Western Hindi,Hindustani</t>
         </is>
       </c>
@@ -1799,6 +2269,11 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
+          <t>27 million (2015)[1]</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
           <t>Turkic,Common Turkic,Karluk</t>
         </is>
       </c>
@@ -1814,6 +2289,11 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
+          <t>76 million (2009)[1]</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
           <t>Austroasiatic,Vietic,Viet–Muong</t>
         </is>
       </c>
@@ -1829,6 +2309,17 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
+          <t xml:space="preserve">All UK speakers:  1,123,500+ (2019)[1]
+Wales: 874,600 speakers (29.0% of the population of Wales),[2] (data from 2019 Population Survey); All skills (speaking, reading, or writing): 1,012,500 language users[3]
+England: 110,000–150,000 (estimated)
+Argentina: 1,500-5,000[4][5]
+Canada: L1,&lt;3,885[6]
+United States: ~2,235 (2009–2013) (2017)
+</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
           <t>Indo-European,Celtic,Insular Celtic,Brittonic,Western</t>
         </is>
       </c>
@@ -1844,6 +2335,11 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
+          <t>470,000 (2001 census)[1]</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,West Germanic,Ingvaeonic,Anglo-Frisian,Frisian,West Frisian languages</t>
         </is>
       </c>
@@ -1859,6 +2355,11 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
+          <t>8.2 million (2011 census)[1]11 million L2 speakers (2002)[2]</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
           <t>Niger–Congo,Atlantic–Congo,Benue–Congo,Southern Bantoid,Bantu,Southern Bantu,Nguni,Zunda</t>
         </is>
       </c>
@@ -1874,6 +2375,11 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
+          <t>(1.5 million cited 1986–1991 + half undated)[1]</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
           <t>Indo-European,Germanic,West Germanic,Elbe Germanic,High German</t>
         </is>
       </c>
@@ -1889,6 +2395,11 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
+          <t>40 million (2015)[1]</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
           <t>Niger–Congo,Atlantic–Congo,Volta–Niger,YEAI,Yoruboid,Edekiri</t>
         </is>
       </c>
@@ -1903,6 +2414,11 @@
         </is>
       </c>
       <c r="C103" t="inlineStr">
+        <is>
+          <t>12 million (2011 census)[1]L2 speakers: 16 million (2002)[2]</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
         <is>
           <t>Niger–Congo,Atlantic–Congo,Benue–Congo,Bantoid,Southern Bantoid,Bantu,Southern Bantu,Nguni,Zunda</t>
         </is>
